--- a/Base/Teams/Seahawks/Players Data.xlsx
+++ b/Base/Teams/Seahawks/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -47,6 +47,9 @@
     <t>D.Dallas</t>
   </si>
   <si>
+    <t>A.Peterson</t>
+  </si>
+  <si>
     <t>T.Lockett</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
     <t>G.Everett</t>
   </si>
   <si>
+    <t>W.Dissly</t>
+  </si>
+  <si>
     <t>Short Target</t>
   </si>
   <si>
@@ -81,9 +87,6 @@
   </si>
   <si>
     <t>P.Hart</t>
-  </si>
-  <si>
-    <t>W.Dissly</t>
   </si>
   <si>
     <t>C.Parkinson</t>
@@ -444,7 +447,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -478,10 +481,10 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -495,16 +498,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -535,16 +538,16 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -575,16 +578,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -595,10 +598,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -618,7 +621,7 @@
         <v>2</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -644,6 +647,46 @@
         <v>0</v>
       </c>
       <c r="F10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
         <v>0</v>
       </c>
     </row>
@@ -654,7 +697,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -665,22 +708,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -688,19 +731,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -714,13 +757,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -729,10 +772,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -740,14 +783,14 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>9</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>7</v>
       </c>
-      <c r="D4">
-        <v>6</v>
-      </c>
       <c r="E4">
         <v>0</v>
       </c>
@@ -755,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -766,25 +809,25 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -792,25 +835,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E6">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -821,22 +864,22 @@
         <v>11</v>
       </c>
       <c r="C7">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="D7">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="E7">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+      <c r="G7">
         <v>6</v>
       </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -847,22 +890,22 @@
         <v>12</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
         <v>4</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -870,16 +913,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
         <v>7</v>
       </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -888,7 +931,7 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -896,25 +939,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>37</v>
+        <v>8</v>
       </c>
       <c r="D10">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -922,25 +965,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D11">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -948,24 +991,50 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12">
+        <v>4</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Seahawks/Players Data.xlsx
+++ b/Base/Teams/Seahawks/Players Data.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Seahawks/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="38" documentId="11_2DB6C9D1B99943026BD13037F5EA457791B0176D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF02FD7C-7EBC-4FE7-934B-E925CE8F52DA}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -81,6 +87,9 @@
   </si>
   <si>
     <t>RZ Comp</t>
+  </si>
+  <si>
+    <t>N.Bellore</t>
   </si>
   <si>
     <t>D.Metcalf</t>
@@ -95,8 +104,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,6 +168,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -205,7 +222,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,9 +254,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -271,6 +306,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -446,14 +499,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +525,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -484,13 +539,13 @@
         <v>9</v>
       </c>
       <c r="E2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -498,19 +553,19 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="E3">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,19 +573,19 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -550,7 +605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -561,16 +616,16 @@
         <v>25</v>
       </c>
       <c r="D6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F6">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -590,7 +645,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -610,7 +665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -618,7 +673,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -630,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -638,7 +693,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -650,7 +705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -661,7 +716,7 @@
         <v>2</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -670,7 +725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -696,14 +751,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +783,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -734,10 +791,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -752,7 +809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -760,10 +817,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -778,7 +835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -804,7 +861,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -830,7 +887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -838,117 +895,117 @@
         <v>22</v>
       </c>
       <c r="C6">
-        <v>61</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C7">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="D7">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="E7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F7">
+        <v>9</v>
+      </c>
+      <c r="G7">
         <v>15</v>
       </c>
-      <c r="G7">
-        <v>6</v>
-      </c>
       <c r="H7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="E8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D9">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -957,84 +1014,110 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D11">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="D12">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
         <v>4</v>
       </c>
-      <c r="F12">
-        <v>4</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C13">
+        <v>19</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="H13">
         <v>2</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>0</v>
       </c>
     </row>

--- a/Base/Teams/Seahawks/Players Data.xlsx
+++ b/Base/Teams/Seahawks/Players Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Seahawks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="11_2DB6C9D1B99943026BD13037F5EA457791B0176D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF02FD7C-7EBC-4FE7-934B-E925CE8F52DA}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_4473CACF25310C0971313537F5EA4577F1BD9C51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDF5EEBF-2066-4883-AAED-C74DB2E98C63}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Name</t>
   </si>
@@ -44,61 +44,58 @@
     <t>R.Penny</t>
   </si>
   <si>
+    <t>D.Dallas</t>
+  </si>
+  <si>
+    <t>A.Peterson</t>
+  </si>
+  <si>
+    <t>T.Lockett</t>
+  </si>
+  <si>
+    <t>F.Swain</t>
+  </si>
+  <si>
+    <t>D.Eskridge</t>
+  </si>
+  <si>
+    <t>G.Everett</t>
+  </si>
+  <si>
+    <t>W.Dissly</t>
+  </si>
+  <si>
+    <t>Short Target</t>
+  </si>
+  <si>
+    <t>Short Comp</t>
+  </si>
+  <si>
+    <t>Deep Target</t>
+  </si>
+  <si>
+    <t>Deep Comp</t>
+  </si>
+  <si>
+    <t>RZ Target</t>
+  </si>
+  <si>
+    <t>RZ Comp</t>
+  </si>
+  <si>
+    <t>N.Bellore</t>
+  </si>
+  <si>
+    <t>D.Metcalf</t>
+  </si>
+  <si>
+    <t>P.Hart</t>
+  </si>
+  <si>
+    <t>C.Parkinson</t>
+  </si>
+  <si>
     <t>A.Collins</t>
-  </si>
-  <si>
-    <t>T.Homer</t>
-  </si>
-  <si>
-    <t>D.Dallas</t>
-  </si>
-  <si>
-    <t>A.Peterson</t>
-  </si>
-  <si>
-    <t>T.Lockett</t>
-  </si>
-  <si>
-    <t>F.Swain</t>
-  </si>
-  <si>
-    <t>D.Eskridge</t>
-  </si>
-  <si>
-    <t>G.Everett</t>
-  </si>
-  <si>
-    <t>W.Dissly</t>
-  </si>
-  <si>
-    <t>Short Target</t>
-  </si>
-  <si>
-    <t>Short Comp</t>
-  </si>
-  <si>
-    <t>Deep Target</t>
-  </si>
-  <si>
-    <t>Deep Comp</t>
-  </si>
-  <si>
-    <t>RZ Target</t>
-  </si>
-  <si>
-    <t>RZ Comp</t>
-  </si>
-  <si>
-    <t>N.Bellore</t>
-  </si>
-  <si>
-    <t>D.Metcalf</t>
-  </si>
-  <si>
-    <t>P.Hart</t>
-  </si>
-  <si>
-    <t>C.Parkinson</t>
   </si>
 </sst>
 </file>
@@ -130,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -153,13 +150,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -500,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>12</v>
@@ -573,16 +584,16 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -590,19 +601,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -610,16 +621,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -630,19 +641,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -650,13 +661,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -670,13 +681,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -690,13 +701,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -710,10 +721,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -722,26 +733,6 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
         <v>0</v>
       </c>
     </row>
@@ -752,10 +743,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -765,22 +756,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
@@ -788,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
         <v>14</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -817,10 +808,10 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -829,10 +820,10 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -840,25 +831,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4">
+        <v>10</v>
+      </c>
+      <c r="D4">
         <v>9</v>
       </c>
-      <c r="D4">
-        <v>7</v>
-      </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -866,13 +857,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -881,10 +872,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -892,25 +883,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -918,25 +909,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C7">
-        <v>66</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -947,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -970,25 +961,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C9">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -996,25 +987,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="D10">
+        <v>38</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
       <c r="H10">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -1022,25 +1013,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -1048,77 +1039,51 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="D12">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>42</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
+      </c>
+      <c r="G13">
         <v>7</v>
       </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13">
-        <v>19</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>5</v>
-      </c>
-      <c r="F13">
-        <v>5</v>
-      </c>
-      <c r="G13">
+      <c r="H13">
         <v>3</v>
-      </c>
-      <c r="H13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>3</v>
-      </c>
-      <c r="D14">
-        <v>2</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Seahawks/Players Data.xlsx
+++ b/Base/Teams/Seahawks/Players Data.xlsx
@@ -1,22 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/136736bc97bfa800/Robbie/Football/nfl-simulation-app/Base/Teams/Seahawks/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_4473CACF25310C0971313537F5EA4577F1BD9C51" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDF5EEBF-2066-4883-AAED-C74DB2E98C63}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Rushing" sheetId="1" r:id="rId1"/>
     <sheet name="Receiving" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -44,6 +38,9 @@
     <t>R.Penny</t>
   </si>
   <si>
+    <t>A.Collins</t>
+  </si>
+  <si>
     <t>D.Dallas</t>
   </si>
   <si>
@@ -93,16 +90,13 @@
   </si>
   <si>
     <t>C.Parkinson</t>
-  </si>
-  <si>
-    <t>A.Collins</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,7 +121,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -150,27 +144,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -179,14 +159,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -233,7 +205,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,27 +237,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,24 +271,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,16 +446,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -536,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -544,39 +478,39 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>9</v>
       </c>
       <c r="E2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="E3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -584,44 +518,44 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="E4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="E5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>7</v>
@@ -636,12 +570,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -656,12 +590,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -676,15 +610,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -696,12 +630,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -716,12 +650,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -742,65 +676,63 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C2">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D2">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -808,56 +740,56 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>9</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -878,24 +810,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D6">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>15</v>
@@ -904,7 +836,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -912,25 +844,25 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="E7">
+        <v>43</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7">
         <v>7</v>
       </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>4</v>
-      </c>
       <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -938,77 +870,77 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
         <v>7</v>
       </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
       <c r="F8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C9">
+        <v>11</v>
+      </c>
+      <c r="D9">
         <v>9</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>6</v>
       </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1016,74 +948,74 @@
         <v>13</v>
       </c>
       <c r="C11">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C12">
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>15</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+      <c r="G12">
         <v>3</v>
       </c>
-      <c r="D12">
-        <v>2</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
       <c r="H12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C13">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>46</v>
+        <v>2</v>
       </c>
       <c r="E13">
-        <v>42</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Base/Teams/Seahawks/Players Data.xlsx
+++ b/Base/Teams/Seahawks/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -41,12 +41,18 @@
     <t>A.Collins</t>
   </si>
   <si>
+    <t>T.Homer</t>
+  </si>
+  <si>
     <t>D.Dallas</t>
   </si>
   <si>
     <t>A.Peterson</t>
   </si>
   <si>
+    <t>D.Metcalf</t>
+  </si>
+  <si>
     <t>T.Lockett</t>
   </si>
   <si>
@@ -81,9 +87,6 @@
   </si>
   <si>
     <t>N.Bellore</t>
-  </si>
-  <si>
-    <t>D.Metcalf</t>
   </si>
   <si>
     <t>P.Hart</t>
@@ -447,7 +450,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -481,13 +484,13 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -498,16 +501,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="D3">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -544,10 +547,10 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -558,16 +561,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -578,16 +581,16 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -598,10 +601,10 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -618,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -638,10 +641,10 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -658,7 +661,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -667,6 +670,46 @@
         <v>0</v>
       </c>
       <c r="F11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
         <v>0</v>
       </c>
     </row>
@@ -688,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -714,11 +757,11 @@
         <v>6</v>
       </c>
       <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
         <v>11</v>
       </c>
-      <c r="D2">
-        <v>9</v>
-      </c>
       <c r="E2">
         <v>1</v>
       </c>
@@ -726,7 +769,7 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -763,7 +806,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>13</v>
@@ -789,7 +832,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -815,25 +858,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="D6">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -841,25 +884,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D7">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="H7">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -867,19 +910,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G8">
         <v>4</v>
@@ -893,16 +936,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -919,13 +962,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -945,16 +988,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="D11">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F11">
         <v>4</v>
@@ -971,13 +1014,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -997,13 +1040,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
         <v>3</v>
-      </c>
-      <c r="D13">
-        <v>2</v>
       </c>
       <c r="E13">
         <v>1</v>

--- a/Base/Teams/Seahawks/Players Data.xlsx
+++ b/Base/Teams/Seahawks/Players Data.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -481,16 +481,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -501,16 +501,16 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D3">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>5</v>
       </c>
       <c r="F3">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -541,7 +541,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>3</v>
@@ -561,7 +561,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D6">
         <v>3</v>
@@ -621,7 +621,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -720,7 +720,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -806,25 +806,25 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C4">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D4">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -832,13 +832,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -858,25 +858,25 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C6">
-        <v>84</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G6">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -884,25 +884,25 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="D7">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="E7">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="G7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -910,25 +910,25 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="E8">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="F8">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -936,25 +936,25 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G9">
         <v>4</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -962,25 +962,25 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C10">
+        <v>13</v>
+      </c>
+      <c r="D10">
         <v>10</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>7</v>
       </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -988,25 +988,25 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C11">
-        <v>55</v>
+        <v>10</v>
       </c>
       <c r="D11">
-        <v>43</v>
+        <v>7</v>
       </c>
       <c r="E11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G11">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1014,25 +1014,25 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D12">
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F12">
         <v>5</v>
       </c>
       <c r="G12">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1040,25 +1040,51 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>16</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>5</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C13">
-        <v>4</v>
-      </c>
-      <c r="D13">
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>3</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
+      <c r="H14">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
